--- a/metadata/2022/hwb_metadata_s1_row_names.xlsx
+++ b/metadata/2022/hwb_metadata_s1_row_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/victoria_dunn_gov_scot/Documents/Git Repos/HWB Rap Project/hwb-census/metadata/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{CA2D8581-2286-4124-8299-8D0C105DECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F358C6D-3E48-427D-8787-4D1B452619D9}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{CA2D8581-2286-4124-8299-8D0C105DECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC4CA9C-3F46-43B0-A15D-70F699B5BC42}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{2E20E8A5-94FD-4267-ABF4-8FB7F7A0D613}"/>
+    <workbookView xWindow="14940" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{2E20E8A5-94FD-4267-ABF4-8FB7F7A0D613}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Once a week</t>
   </si>
   <si>
-    <t>At least once a month but not every week</t>
-  </si>
-  <si>
     <t>Less than once a month</t>
   </si>
   <si>
@@ -852,6 +849,9 @@
   </si>
   <si>
     <t>play_areas_outdoors</t>
+  </si>
+  <si>
+    <t>Once a month</t>
   </si>
 </sst>
 </file>
@@ -887,11 +887,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,426 +1209,428 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:136" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1679,16 +1678,16 @@
         <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
         <v>0</v>
@@ -1721,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s">
         <v>0</v>
@@ -1730,52 +1729,52 @@
         <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AO2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AU2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AW2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AX2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AY2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="s">
         <v>1</v>
@@ -1784,64 +1783,64 @@
         <v>1</v>
       </c>
       <c r="BC2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BE2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BF2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BH2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BL2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BM2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BN2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BR2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BS2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BT2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BU2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BV2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BW2" t="s">
         <v>22</v>
@@ -1874,168 +1873,168 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CH2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CI2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CJ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CK2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CL2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CN2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CO2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CP2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CQ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CR2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CS2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CT2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CU2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CW2" t="s">
         <v>7</v>
       </c>
       <c r="CX2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CY2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CZ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DA2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DB2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DC2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DD2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DE2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DF2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DG2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DH2" t="s">
         <v>27</v>
       </c>
       <c r="DI2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="DJ2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DK2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DL2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DM2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DN2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DO2" t="s">
         <v>27</v>
       </c>
       <c r="DP2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DQ2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DR2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DS2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DT2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DU2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DV2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DW2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DX2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DY2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DZ2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EA2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EB2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EC2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="ED2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="EE2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="EF2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -2083,16 +2082,16 @@
         <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
         <v>1</v>
@@ -2125,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s">
         <v>1</v>
@@ -2134,52 +2133,52 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AX3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AY3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AZ3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="s">
         <v>3</v>
@@ -2188,67 +2187,67 @@
         <v>3</v>
       </c>
       <c r="BC3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BD3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW3" t="s">
         <v>84</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>85</v>
       </c>
       <c r="BX3" t="s">
         <v>1</v>
@@ -2278,165 +2277,165 @@
         <v>1</v>
       </c>
       <c r="CG3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CH3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>90</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>89</v>
+      </c>
+      <c r="DI3" t="s">
         <v>51</v>
       </c>
-      <c r="CI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>90</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>52</v>
-      </c>
       <c r="DJ3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DK3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DL3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DM3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DN3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DO3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DP3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DQ3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DR3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DS3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DT3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DU3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DV3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DW3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DX3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DY3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DZ3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EA3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EB3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EC3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="ED3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EE3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EF3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2487,13 +2486,13 @@
         <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
         <v>5</v>
@@ -2529,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="AH4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s">
         <v>2</v>
@@ -2538,52 +2537,52 @@
         <v>2</v>
       </c>
       <c r="AK4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AO4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AV4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AX4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AY4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AZ4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA4" t="s">
         <v>20</v>
@@ -2595,10 +2594,10 @@
         <v>5</v>
       </c>
       <c r="BD4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BE4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BF4" t="s">
         <v>6</v>
@@ -2652,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="BW4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX4" t="s">
         <v>2</v>
@@ -2682,10 +2681,10 @@
         <v>2</v>
       </c>
       <c r="CG4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CH4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CI4" t="s">
         <v>5</v>
@@ -2721,19 +2720,19 @@
         <v>6</v>
       </c>
       <c r="CT4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="CU4" t="s">
         <v>5</v>
       </c>
       <c r="CV4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CW4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CX4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CY4" t="s">
         <v>6</v>
@@ -2763,10 +2762,10 @@
         <v>6</v>
       </c>
       <c r="DH4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DI4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="DJ4" t="s">
         <v>6</v>
@@ -2784,66 +2783,66 @@
         <v>5</v>
       </c>
       <c r="DO4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="DP4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DQ4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DR4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DS4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DT4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DU4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DV4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DW4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DX4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DY4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DZ4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EA4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EB4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EC4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="ED4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="EE4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="EF4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -2891,13 +2890,13 @@
         <v>30</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
         <v>6</v>
@@ -2933,7 +2932,7 @@
         <v>3</v>
       </c>
       <c r="AH5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s">
         <v>3</v>
@@ -2942,13 +2941,13 @@
         <v>3</v>
       </c>
       <c r="AK5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s">
         <v>27</v>
@@ -2957,37 +2956,37 @@
         <v>5</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AR5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BA5" t="s">
         <v>6</v>
@@ -2999,34 +2998,34 @@
         <v>6</v>
       </c>
       <c r="BD5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BE5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BF5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BG5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BH5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BI5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BJ5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BK5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BL5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BM5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BN5" t="s">
         <v>6</v>
@@ -3056,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="BW5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX5" t="s">
         <v>3</v>
@@ -3095,37 +3094,37 @@
         <v>6</v>
       </c>
       <c r="CJ5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CK5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CL5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CM5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CN5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CO5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CP5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CQ5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CR5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CS5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CT5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CU5" t="s">
         <v>6</v>
@@ -3134,55 +3133,55 @@
         <v>5</v>
       </c>
       <c r="CW5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CX5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CY5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CZ5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DA5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DB5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DC5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DD5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DE5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DF5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DG5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DH5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DI5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DJ5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DK5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DL5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DM5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DN5" t="s">
         <v>6</v>
@@ -3233,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="ED5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EE5" t="s">
         <v>5</v>
@@ -3244,7 +3243,7 @@
     </row>
     <row r="6" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -3289,19 +3288,19 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X6" t="s">
         <v>4</v>
@@ -3334,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="AH6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s">
         <v>4</v>
@@ -3343,13 +3342,13 @@
         <v>4</v>
       </c>
       <c r="AK6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN6" t="s">
         <v>5</v>
@@ -3358,79 +3357,79 @@
         <v>6</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ6" t="s">
         <v>5</v>
       </c>
       <c r="BA6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BB6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BC6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BN6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BO6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BP6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BQ6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BR6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BS6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BT6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BV6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BW6" t="s">
         <v>5</v>
@@ -3469,31 +3468,31 @@
         <v>6</v>
       </c>
       <c r="CI6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CT6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CU6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CV6" t="s">
         <v>6</v>
       </c>
       <c r="CW6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="DH6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DI6" t="s">
         <v>5</v>
       </c>
       <c r="DN6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DO6" t="s">
         <v>6</v>
@@ -3502,43 +3501,43 @@
         <v>6</v>
       </c>
       <c r="DQ6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DR6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DS6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DT6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DU6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DV6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DW6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DX6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DZ6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EA6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EB6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EC6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ED6" t="s">
         <v>5</v>
@@ -3552,7 +3551,7 @@
     </row>
     <row r="7" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -3588,7 +3587,7 @@
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q7" t="s">
         <v>18</v>
@@ -3597,13 +3596,13 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
         <v>6</v>
@@ -3648,19 +3647,19 @@
         <v>5</v>
       </c>
       <c r="AK7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL7" t="s">
         <v>5</v>
       </c>
       <c r="AM7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="s">
         <v>6</v>
       </c>
       <c r="AO7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP7" t="s">
         <v>6</v>
@@ -3696,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="BD7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BE7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BW7" t="s">
         <v>6</v>
@@ -3732,16 +3731,16 @@
         <v>6</v>
       </c>
       <c r="CG7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CH7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CT7" t="s">
         <v>5</v>
       </c>
       <c r="CV7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CW7" t="s">
         <v>5</v>
@@ -3756,24 +3755,24 @@
         <v>6</v>
       </c>
       <c r="DO7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DP7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ED7" t="s">
         <v>6</v>
       </c>
       <c r="EE7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EF7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3806,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
@@ -3815,16 +3814,16 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X8" t="s">
         <v>6</v>
@@ -3836,28 +3835,28 @@
         <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI8" t="s">
         <v>6</v>
@@ -3866,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="AK8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL8" t="s">
         <v>6</v>
@@ -3875,76 +3874,76 @@
         <v>5</v>
       </c>
       <c r="AN8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AR8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AS8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AU8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AV8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AW8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AX8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AY8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AZ8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BW8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BX8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BZ8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CA8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CB8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CC8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CD8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CE8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CF8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CT8" t="s">
         <v>6</v>
@@ -3959,107 +3958,107 @@
         <v>6</v>
       </c>
       <c r="DI8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ED8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q9" t="s">
         <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S9" t="s">
         <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s">
         <v>5</v>
       </c>
       <c r="AL9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM9" t="s">
         <v>6</v>
       </c>
       <c r="BD9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BE9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CT9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CW9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CX9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DH9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
@@ -4068,33 +4067,33 @@
         <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="s">
         <v>6</v>
       </c>
       <c r="AM10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BE10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q11" t="s">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -4103,7 +4102,7 @@
         <v>6</v>
       </c>
       <c r="AK11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD11" t="s">
         <v>6</v>
@@ -4114,47 +4113,47 @@
     </row>
     <row r="12" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BE12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:136" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
